--- a/Monthly/Ljung_Box/First Difference/NIKKEI.xlsx
+++ b/Monthly/Ljung_Box/First Difference/NIKKEI.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01177457712886478</v>
+        <v>0.01457502856583478</v>
+      </c>
+      <c r="C2">
+        <v>0.9039072067707477</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1015182674206677</v>
+        <v>0.02856125323272943</v>
+      </c>
+      <c r="C3">
+        <v>0.9858208578702087</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1306293957337119</v>
+        <v>0.2448352204645153</v>
       </c>
       <c r="C4">
-        <v>0.7177803504533276</v>
+        <v>0.9700460289602132</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2541659693924934</v>
+        <v>0.4570505215943394</v>
       </c>
       <c r="C5">
-        <v>0.8806605882133468</v>
+        <v>0.9775451629143288</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6160590147516365</v>
+        <v>0.4619470844486153</v>
       </c>
       <c r="C6">
-        <v>0.8927463885925024</v>
+        <v>0.993450462279667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.318426604968546</v>
+        <v>0.6744333029096745</v>
       </c>
       <c r="C7">
-        <v>0.8582415205572955</v>
+        <v>0.9950262879501028</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.700979758686135</v>
+        <v>0.8723975675931683</v>
       </c>
       <c r="C8">
-        <v>0.4534512044891899</v>
+        <v>0.9966330164753607</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.949608339639976</v>
+        <v>3.681741203880292</v>
       </c>
       <c r="C9">
-        <v>0.5502923309046013</v>
+        <v>0.8846363326493003</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.256753060768248</v>
+        <v>6.831641283803831</v>
       </c>
       <c r="C10">
-        <v>0.5101100005338178</v>
+        <v>0.6546428933742325</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.382963044010006</v>
+        <v>6.875333159025723</v>
       </c>
       <c r="C11">
-        <v>0.6044165719325415</v>
+        <v>0.7371595286734243</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.29316568942344</v>
+        <v>7.029123163871387</v>
       </c>
       <c r="C12">
-        <v>0.606625627677698</v>
+        <v>0.7967201656098932</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.960743695563327</v>
+        <v>7.875743470461204</v>
       </c>
       <c r="C13">
-        <v>0.6326715630518034</v>
+        <v>0.7947636625665483</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8.032386290751754</v>
+        <v>8.050995413521038</v>
       </c>
       <c r="C14">
-        <v>0.7103998018742909</v>
+        <v>0.8402622050442992</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8.227701974003025</v>
+        <v>8.087142752239926</v>
       </c>
       <c r="C15">
-        <v>0.767092661237064</v>
+        <v>0.8847368049284998</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8.597170725167397</v>
+        <v>8.294758671789699</v>
       </c>
       <c r="C16">
-        <v>0.8026414646974107</v>
+        <v>0.9114223767067835</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.998406850538398</v>
+        <v>9.838133083785584</v>
       </c>
       <c r="C17">
-        <v>0.8311526224431484</v>
+        <v>0.8749435052014189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10.97857639618559</v>
+        <v>11.23630495385852</v>
       </c>
       <c r="C18">
-        <v>0.7541115710058709</v>
+        <v>0.8440192429239272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>11.46387874654786</v>
+        <v>11.2814407406694</v>
       </c>
       <c r="C19">
-        <v>0.7799884291656216</v>
+        <v>0.882034094350146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11.69721648545475</v>
+        <v>11.28752323451595</v>
       </c>
       <c r="C20">
-        <v>0.8181150110954152</v>
+        <v>0.9137874477015137</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11.76848191012061</v>
+        <v>11.83361611214542</v>
       </c>
       <c r="C21">
-        <v>0.8589570199630193</v>
+        <v>0.921683707551383</v>
       </c>
     </row>
   </sheetData>
